--- a/biology/Médecine/Classification_commune_des_actes_médicaux/Classification_commune_des_actes_médicaux.xlsx
+++ b/biology/Médecine/Classification_commune_des_actes_médicaux/Classification_commune_des_actes_médicaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
+          <t>Classification_commune_des_actes_médicaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification commune des actes médicaux (CCAM) est une nomenclature de la Sécurité sociale française regroupant le codage des gestes pratiqués par les médecins, les chirurgiens-dentistes et les sages-femmes. Elle est constituée des gestes techniques dans un premier temps puis, par la suite, des actes intellectuels cliniques. Elle a succédé au catalogue des actes médicaux (CdAM) en milieu hospitalier et, pour les actes techniques des médecins, à la nomenclature générale des actes professionnels (NGAP) en secteur libéral et hospitalier.
 Elle a été appelée un temps nomenclature commune des actes médicaux (NCAM). À terme elle devrait être étendue pour décrire l'ensemble des actes réalisés par les professionnels de santé et être renommée classification commune des actes de professionnels de santé (CCAPS).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
+          <t>Classification_commune_des_actes_médicaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,20 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette classification sert à établir :
 en médecine libérale et en milieu hospitalier, les honoraires des actes techniques réalisés lors des consultations ;
 le seuil d’exonération du ticket modérateur pour les actes coûteux qui est passé en 2011 de 91 à 120 euros ;
-la participation forfaitaire de 18 euros à charge des patients pour les actes facturés plus de 120 euros, dits « couteux » (contre 91 euros avant 2011)[1] ;
+la participation forfaitaire de 18 euros à charge des patients pour les actes facturés plus de 120 euros, dits « couteux » (contre 91 euros avant 2011) ;
 dans les cliniques privées, les honoraires pour les interventions réalisées ;
 dans les hôpitaux publics et privés, le PMSI et sa tarification des séjours hospitaliers transmis à l'assurance maladie dans le cadre de la T2A.
-Le choix des actes de cette nomenclature revenait à la Commission d’évaluation des actes professionnels (CEAP) de la Haute autorité de santé actuellement transformée en commission nationale d’évaluation des dispositifs médicaux et des technologies de santé de la HAS (CNEDiMTS)[2].
-L'inspection générale des affaires sociales a établi en 2012 une évaluation de la tarification des soins hospitaliers et des actes médicaux[3] qui esquisse la nomenclature des actes CCAM Cliniques. Détail de la procédure administrative HAS / UNCAM / UNOCAM / Ministère[4].
+Le choix des actes de cette nomenclature revenait à la Commission d’évaluation des actes professionnels (CEAP) de la Haute autorité de santé actuellement transformée en commission nationale d’évaluation des dispositifs médicaux et des technologies de santé de la HAS (CNEDiMTS).
+L'inspection générale des affaires sociales a établi en 2012 une évaluation de la tarification des soins hospitaliers et des actes médicaux qui esquisse la nomenclature des actes CCAM Cliniques. Détail de la procédure administrative HAS / UNCAM / UNOCAM / Ministère.
 L'Observatoire de la CCAM (OCCAM), chargé depuis 2005 d’étudier l'impact de la CCAM technique et d'analyser l’évolution du coût de la pratique de tous les actes médicaux dans toutes les spécialités publiques et privées, est composé en nombre égal d’experts désignés par le directeur de l’UNCAM et par les syndicats professionnels.
-La commission de hiérarchisation des actes et prestations des médecins (CHAPm) de l'Union nationale des caisses d'assurance maladie fixe et supervise les modalités d'application des tarifs[5].
+La commission de hiérarchisation des actes et prestations des médecins (CHAPm) de l'Union nationale des caisses d'assurance maladie fixe et supervise les modalités d'application des tarifs.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
+          <t>Classification_commune_des_actes_médicaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Élaboration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les missions de la Commission Nationale d’Évaluation des Dispositifs Médicaux et des Technologies de Santé CNEDIMTS sont définies par le décret no 2004-1419 du 23 décembre 2004 relatif à la prise en charge des produits et prestations mentionnés à l’article L. 165-1 du code de la sécurité sociale sont :
 rendre des avis en vue du remboursement de dispositifs médicaux ou d’autres produits à visée diagnostique, thérapeutique ou de compensation du handicap (à l’exclusion des médicaments) et des prestations qui leur sont associées ;
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
+          <t>Classification_commune_des_actes_médicaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,11 +604,48 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa version V2, la CCAM comprenait 7 623 codes. Chacun est accompagné d'un libellé destiné à préciser de manière univoque sa signification suivi par son tarif en euros et de précisions tarifaires.
-Code principal
-Codage explicite hiérarchique. Ce code et/ou son intitulé en présence de donnée nominative peut altérer la protection des personnes et lever la confidentialité de ceux qui se confient aux organismes et organisation de soins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_commune_des_actes_médicaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_commune_des_actes_m%C3%A9dicaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Code principal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Codage explicite hiérarchique. Ce code et/ou son intitulé en présence de donnée nominative peut altérer la protection des personnes et lever la confidentialité de ceux qui se confient aux organismes et organisation de soins.
 Chaque code est composé de quatre lettres et de trois chiffres.
 La première lettre désigne un grand appareil anatomique ;
 La seconde lettre précise l'organe (ou la fonction) dans l'appareil correspondant à la première lettre ;
@@ -602,8 +655,43 @@
 par exemple : HHFA001 : Appendicectomie, par abord de la fosse iliaque
                       HH . F        A . 001
                       Topographie Action Technique Compteur
-CCAM hiérarchique
-Les codes CCAM sont également structurés dans un arborescence dont le premier niveau comporte 19 chapitres, organisés principalement par grande structure anatomique ou fonctionnelle :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_commune_des_actes_médicaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_commune_des_actes_m%C3%A9dicaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CCAM hiérarchique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les codes CCAM sont également structurés dans un arborescence dont le premier niveau comporte 19 chapitres, organisés principalement par grande structure anatomique ou fonctionnelle :
 01. système nerveux central, périphérique et autonome ;
 02. œil et annexes ;
 03. oreille ;
@@ -628,31 +716,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_commune_des_actes_médicaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_commune_des_actes_m%C3%A9dicaux</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Modificateurs et association d'actes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains actes peuvent recevoir en plus de leur code principal une ou plusieurs précisions appelées Modificateurs.
 Un modificateur est une information associée à un libellé qui identifie un critère particulier pour la réalisation d'un acte ou pour sa valorisation. Il s'applique à une liste précise d'actes. Les modificateurs autorisés sont mentionnés explicitement en regard de chacun des actes concernés. L'application d'un modificateur conduit à une majoration du tarif de l'acte. Seuls peuvent être facturés les modificateurs se rapportant à des actes ayant un tarif. La description de ces modificateurs figure à l’article III-2 du Livre III des dispositions générales officielles. Quatre modificateurs au plus peuvent être tarifés par acte.
@@ -661,33 +751,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_commune_des_actes_médicaux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_commune_des_actes_m%C3%A9dicaux</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Versions de la CCAM</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La version de la « CCAM technique » CCAM version 39.10 de décembre 2014[6] et son correctif de la v 39 impose
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La version de la « CCAM technique » CCAM version 39.10 de décembre 2014 et son correctif de la v 39 impose
 une modification de la structure technique de cette classification ;
 la mise en œuvre au 01/01/2015 du tarif cible de 3,763 codes actes/activités/phases pour les médecins de secteur 1 et 2 adhérents au CAS ;
 la suppression des modificateurs O, X, I et 9.
@@ -696,33 +788,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_commune_des_actes_médicaux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_commune_des_actes_m%C3%A9dicaux</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Historique des versions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Historique des versions[6] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Historique des versions :
 CCAM V55, 4 janvier 2019
 CCAM V54.10, 1er novembre 2018
 CCAM V54, 1er septembre 2018
@@ -774,31 +868,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classification_commune_des_actes_m%C3%A9dicaux</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_commune_des_actes_médicaux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_commune_des_actes_m%C3%A9dicaux</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Autres nomenclatures d'actes au sens large</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Allemagne : Gebührenordnung für Ärzte (de) (GOÄ)
 Australie : medicare benefits schedule book MBS
